--- a/data/financial_statements/socf/PLD.xlsx
+++ b/data/financial_statements/socf/PLD.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,2346 +581,2349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-2935332000</v>
+      </c>
+      <c r="C2">
         <v>1069174000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>646436000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1219722000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1300853000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>797731000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>650313000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>399693000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>308007000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>332521000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>454938000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>521164000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>426242000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>491013000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>410826000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>373765000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>690490000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>375520000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>364991000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>391959000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>338873000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>913417000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>287980000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>220689000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>466702000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>307242000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>295791000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>222805000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>126757000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>307186000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>140260000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>351312000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>427724000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>147127000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>152430000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>12003000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>68269000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>-7167000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-4985000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>296932000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>369151000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>369316000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>361253000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>359653000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>357137000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>358561000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>363008000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>381666000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>367115000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>371312000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>323407000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>272335000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>261245000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>264620000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>260259000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>269312000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>236261000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>195321000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>192035000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>210050100</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>187448900</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>203182000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>198189000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>204702000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>189885000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>203327000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>224326000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>300873000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>202049000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>187053000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>158557000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>162990000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>124252000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>167897000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>165606000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>124618000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>161426000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>161319000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>179923000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>-499023000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-196957000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-743344000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-810173000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-364605000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-268866000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4390000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-35458000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>323442000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-229937000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-147658000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-33263000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-220146000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-178440000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-71476000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-447414000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-176053000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-58349000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-187684000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-170631000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-607387000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-136411000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-31806000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-224516000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-166058000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-163413000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-63964000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-83326000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-130885000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-96860000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-286326000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-199980000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-40208000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-184377000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>9983000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-58669000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>14737000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-18722000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-339660000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>43474000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-7843000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>107702000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-104853000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-229041000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-63015000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>68398000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-94430000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-112284000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-26553000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>105648000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-82316000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-14109000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1730000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-13470000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4320000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-41519000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-33051000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-2705000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-38892000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>14718000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>27982000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>33470000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-58106000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-62558000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2872000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>11455000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3494000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-53614000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>14044000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-28673000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>20595000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>14546000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>19585000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-54819000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-12912000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>220560000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-7002000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-103806000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-29414000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>252851000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-27784000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-18795000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>43885000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>67192000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>106496000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-123468000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>33376000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>126136000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>9871000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-54164000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>12933000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>106485000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-44929000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-44364000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-12467000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>106956000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>9633000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-67748000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>31212000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>94840000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11207000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-110746000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>11972000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>75932000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>29860000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-113338000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>32357000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-100796000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>78088000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-60530000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-6291000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>52389000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-85227000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-40991000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>43000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-8000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>108000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-105000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-229000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-63015000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>68398000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-94430000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-112284000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-26553000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-17820000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-49000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-92705000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>22043000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>32936000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>1203336000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>803950000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>841527000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>716066000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>814073000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>649209000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>816694000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>603670000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>977986000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>676256000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>679093000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>616374000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>644139000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>508607000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>494914000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>529641000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>500694000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>423983000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>349241000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>326933000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>615153000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>392366000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>352794000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>419994000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>363351000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>349784000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>283876000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>359770000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>400668000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>274357000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>81532000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>443686000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>144921000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>233623000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>72243000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>152741000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>128680000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>74428000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>129140000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-1212787000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-2210111900</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>300976900</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-754891100</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-294639000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-187040900</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-451000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-497522000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-334320000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-205201000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-211251000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-411119300</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-305670700</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>26507900</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-101578000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-182117200</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-419253000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-330945900</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>62488000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>141277900</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>976476000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-231588900</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>37719000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>297153900</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-92151000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>113923000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>139796000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>194318100</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>261635100</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-5874100</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-122832000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>51599100</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>185558000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>440480000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-281266000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1006086000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-60630000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-121587000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2990149000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-3000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-24000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-26000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-15000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-33000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-74195000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-31372000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-4886000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-922000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1773000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-1687214000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-3000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>398000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-46268000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-374605000</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>-4809499000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-461823000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-79487000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-78037000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-34811000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-343185000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-88274000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-224880000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-141764000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-40626000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-58464000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-35173000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-251673000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-19442000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-70548000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-110620000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-75559000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-43353000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-33755000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-31119000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-52131000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-5434000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-99407000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-38236000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-106658000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-37363000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-83301000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-28270000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-117017000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-35456000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-98123000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-217152000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-123689000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-22276000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-668178000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-328031000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-328321000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-863387000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-438039000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-339957000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-258414000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>39822000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>45705000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>17263000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4587000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2345000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3014000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>35121000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>48526000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>65047000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>157000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>140965000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>27457000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12200000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6246000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>336776000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>205381000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>41945000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>23429000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>141505000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>65547000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>9927000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>42834000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>125426000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>262115000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>45801000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>441841000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>309510000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>21141000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-52127000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>152254000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>46172000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-91129000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>68779000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>215064000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>92460000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>62732000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>209308000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>64814000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>82847000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-1252452000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-2242444000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>283429000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-1093489000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-380568000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-408907000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-107094000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-494508000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-328659000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-241990000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-2009173000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-403104000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-364019000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-77866000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>159639000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-19691000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-457331000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-338636000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>151862000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>201391000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>512391000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-226991000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>56487000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>521906000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-129651000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>527494000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>332289000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>180003000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>111385000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-4880271000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-200349000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-61806000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-413841000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>327513000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-517127000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>667254000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-751184000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-396730000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>2814582000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>906603000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>645458000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1015903000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>807681100</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>290755900</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>279855100</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-17440100</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>26317000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>380429600</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-176366700</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>800872100</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>217190000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>737674900</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>145738200</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-297908000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-124670900</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>20827100</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>318583000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-155706000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-407934800</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-565679100</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-152174000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>249951000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-231289900</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>96749100</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-556952100</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-206829000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-308443000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-200473000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2625030000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>101484000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-459042000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>500563700</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-32209800</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-152537000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-255513000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>535879000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-669608000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-2127583000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>34000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>709000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>348000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>18000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1001000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-33979000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>183000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1527000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>21020000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-16648000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1738000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>831000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3089000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1233000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2174000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>5310000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>23475000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1899000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1369000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>27747000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>9162000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1192000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>6146000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>750000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1294000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>82068000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>363162000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3584000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>4036000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>7465000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3397000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>52000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1497140000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>5202000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-7200000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-13182000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-672190000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-27643000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>431088000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-431088000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-482500000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-587645000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-587732000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-587382000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-468501000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-468179000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-468181000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-468000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-430663000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-430589000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-430971000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-430766000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-336698000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-336599000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-323132000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-349231000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-303791000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-304331000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-257558000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-257687000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-235624000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-236468000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-235720000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-235072000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-262175000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-224041000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-222784000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-222559000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-211902000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-211606000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-190604000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-190585000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-166014000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-168004000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-168241000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-580862000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-147662000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-140528000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-60610000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-71246000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-186037000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>11288000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-266393000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-134372000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-107582000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-62202000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-202984000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-89711000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>714284000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-36897000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-52080000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-128892000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-84847000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-16286000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-6174000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-68389000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-83809000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>5270000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-34099000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>66996000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-845706000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-4706000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-91765000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-150240000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-88343000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-70866000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-139120000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>2327663000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-24920000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-61854000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-10382000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-259257000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>445497000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-34622000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-36366000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-221282000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1044000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>258348000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-13520000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>242484000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>350468000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-443816000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-322664000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-592313000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-466200000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-260325000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-696048000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1050411000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-156222000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>350523000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-285266000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-748634000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-443010000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-288847000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-4275000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-495969000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-649297000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-830936000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-297423000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-828928000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-496802000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-191310000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-920814000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-516539000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-585065000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-550449000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>4763383000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-31953000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-327665000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>327752000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-483078000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>132184000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-436512000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>356667000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-23912000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-2261865000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-10465000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-23221000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-10807000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1999000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-6064000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7734000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-39299000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>14931000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2062000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3040000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-1315000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6813000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-6839000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>4685000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1255000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1354000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-6784000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-11341000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>5919000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-707000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>764000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>7573000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>8160000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-12902000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>509000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6020000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6031000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-1061000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-2196000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1543000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-7909000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-15402000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-14380000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>483000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>10457000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-14047000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>2106000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-53721000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>2692000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>198767000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-1475235000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1356633000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-28954000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-16375000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-74628000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>77988000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-342107000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>391064000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-258742000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-280984000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>63861000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>623804000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>150160000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-92826000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>68294000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-252268000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>69731000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>11053000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-121680000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>297372000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-124475000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-411487000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>432196000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>42899000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-37516000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>105657000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-46353000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-40592000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>159012000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-158679000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>38813000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>44452000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>78541000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-302243000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>369436000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-263731000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-399935000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>684549000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>556117000</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2815,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>598086000</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2827,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>1088855000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2839,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>343856000</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2851,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>447046000</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2863,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>807316000</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2875,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>264080000</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2887,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>350692000</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -2899,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>491129000</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -2911,964 +3028,973 @@
         <v>0</v>
       </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>100810000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>198767000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-1475235000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1912750000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-28954000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-16375000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-74628000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>676074000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-342107000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>391064000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-258742000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>807871000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>63861000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>623804000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>150160000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>251030000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>68294000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-252268000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>69731000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>458099000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-121680000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>297372000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-124475000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>395829000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>432196000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>42899000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-37516000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>369737000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-46353000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-40592000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>159012000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>192013000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>38813000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>44452000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>78541000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>188886000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>369436000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-263731000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-399935000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>785359000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>61670000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>36923000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>41429000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>28612000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>25895000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>23946000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>34575000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>23471000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>26554000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>27998000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>31808000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>25090000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>20523000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>20186000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>31758000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>18064000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>18947000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>19086000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>19996000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>18549000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>20487000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>19224000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>18380000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>16683000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>14446000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>16747000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>12465000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>13541000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>13406000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>13484000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>13234000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>14436000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>14056000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>13748000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>15238000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>14986000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>12263000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>12235000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>9755000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1762759000</v>
+      </c>
+      <c r="C25">
         <v>-587645000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-587732000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-587382000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-468501000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-468179000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-468181000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-468000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-430663000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-430589000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-430971000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-430766000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-336698000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-336599000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-323132000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-349231000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-303791000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-304331000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-257558000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-257687000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-235624000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-236468000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-235720000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-235072000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-262175000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-224041000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-222784000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-222559000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-211902000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-211606000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-190604000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-190585000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>502259000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-166014000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-168004000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-168241000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-580862000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>288190000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-147662000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-140528000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>0.2396</v>
+        <v>0.2862</v>
       </c>
       <c r="C26">
-        <v>0.2076</v>
+        <v>0.2365</v>
       </c>
       <c r="D26">
-        <v>0.1412</v>
+        <v>0.2058</v>
       </c>
       <c r="E26">
-        <v>0.1431</v>
+        <v>0.1443</v>
       </c>
       <c r="F26">
-        <v>0.183</v>
+        <v>0.1458</v>
       </c>
       <c r="G26">
+        <v>0.1795</v>
+      </c>
+      <c r="H26">
         <v>0.1859</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.2056</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.2291</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.2098</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.2197</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.2655</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.2027</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.1941</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.2098</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.2299</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.3225</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.2836</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.259</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.2755</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.2641</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.2709</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.3478</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.3854</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.3528</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.3855</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.4199</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.4887</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.5079</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.5708</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.6061</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.3774</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.418</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.4522</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.4029</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.4259</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.4744</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.478</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.4384</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.4473</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>264034000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-14845000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3896000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-134267000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>23810000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-90799000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>49603000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-50545000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-45092000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>79943000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-17820000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-48940000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>112027000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>11601000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-67634000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>17253000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>64966000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-77980000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-47069000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-51359000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>121674000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>37615000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-34278000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-26894000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>32282000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>14079000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-99291000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>15466000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>22318000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>43904000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-142011000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>52952000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-86250000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>97673000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-115349000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>18523000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-40316000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-63184000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-8055000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-79487000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-78037000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-34811000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-343185000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-88274000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-224880000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-141764000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-40626000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-58464000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-35173000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-251673000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-19442000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-70548000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-110620000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-75559000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-43353000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-33755000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-31119000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-52131000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-5434000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-99407000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-38236000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-106658000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-37363000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-83301000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-28270000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-117017000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-35456000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-98123000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-217152000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-123689000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-22276000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-668178000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-328031000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-328321000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-863387000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-438039000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-339957000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-258414000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>34000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>709000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>348000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-7182000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1001000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-33979000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>183000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1527000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>21020000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-16648000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1738000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>831000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>3089000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1233000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-11008000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>5310000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>23475000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1899000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1369000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>27747000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>9162000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1192000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>6146000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>750000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1294000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>82068000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-309028000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>3584000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-23607000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>7465000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>434485000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-431036000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1014640000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>5202000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>34000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>709000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>348000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-7182000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1001000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-33979000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>183000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1527000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>21020000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-16648000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1738000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>831000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3089000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1233000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-11008000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>5310000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>23475000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1899000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1369000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>27747000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>9162000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1192000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6146000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>750000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1294000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>82068000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-309028000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3584000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-23607000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>7465000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>434485000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-431036000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1014640000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>5202000</v>
       </c>
     </row>
